--- a/Practical_19.xlsx
+++ b/Practical_19.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -92,10 +92,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +112,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
@@ -198,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,12 +237,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,15 +673,16 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -737,8 +755,26 @@
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="16">
         <f>((D15-C15)/C15)</f>
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="19">
         <v>0.1</v>
       </c>
     </row>
@@ -746,12 +782,30 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="16">
         <f>C16/C15</f>
         <v>0.45</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="16">
         <f>D16/D15</f>
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0.45</v>
+      </c>
+      <c r="J6" s="19">
         <v>0.45</v>
       </c>
     </row>
@@ -767,18 +821,54 @@
         <f>D18</f>
         <v>18150</v>
       </c>
+      <c r="E7" s="20">
+        <v>19000</v>
+      </c>
+      <c r="F7" s="20">
+        <v>19500</v>
+      </c>
+      <c r="G7" s="20">
+        <v>20000</v>
+      </c>
+      <c r="H7" s="20">
+        <v>20000</v>
+      </c>
+      <c r="I7" s="20">
+        <v>20000</v>
+      </c>
+      <c r="J7" s="20">
+        <v>20000</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="17">
         <f>C20/C15</f>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="17">
         <f>D20/D15</f>
         <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E8" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0.05</v>
+      </c>
+      <c r="J8" s="19">
+        <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -793,17 +883,53 @@
         <f>D21</f>
         <v>1000</v>
       </c>
+      <c r="E9" s="21">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="21">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="21">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="21">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="21">
+        <v>1000</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <f>C23/C22</f>
         <v>0.3</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="18">
         <f>D23/D22</f>
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0.3</v>
+      </c>
+      <c r="J10" s="19">
         <v>0.3</v>
       </c>
     </row>
@@ -825,53 +951,143 @@
       <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="22">
         <v>150000</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="22">
         <v>165000</v>
+      </c>
+      <c r="E15" s="23">
+        <f>D15*(E5+1)</f>
+        <v>181500.00000000003</v>
+      </c>
+      <c r="F15" s="23">
+        <f t="shared" ref="F15:J15" si="0">E15*(F5+1)</f>
+        <v>199650.00000000006</v>
+      </c>
+      <c r="G15" s="23">
+        <f t="shared" si="0"/>
+        <v>219615.00000000009</v>
+      </c>
+      <c r="H15" s="23">
+        <f t="shared" si="0"/>
+        <v>241576.50000000012</v>
+      </c>
+      <c r="I15" s="23">
+        <f t="shared" si="0"/>
+        <v>265734.15000000014</v>
+      </c>
+      <c r="J15" s="23">
+        <f t="shared" si="0"/>
+        <v>292307.56500000018</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="22">
         <v>67500</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="22">
         <v>74250</v>
       </c>
+      <c r="E16" s="23">
+        <f>E15*E6</f>
+        <v>81675.000000000015</v>
+      </c>
+      <c r="F16" s="23">
+        <f t="shared" ref="F16:I16" si="1">F15*F6</f>
+        <v>89842.500000000029</v>
+      </c>
+      <c r="G16" s="23">
+        <f t="shared" si="1"/>
+        <v>98826.750000000044</v>
+      </c>
+      <c r="H16" s="23">
+        <f t="shared" si="1"/>
+        <v>108709.42500000006</v>
+      </c>
+      <c r="I16" s="23">
+        <f t="shared" si="1"/>
+        <v>119580.36750000007</v>
+      </c>
+      <c r="J16" s="23">
+        <f>J15*J6</f>
+        <v>131538.40425000008</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17">
+      <c r="B17" s="15"/>
+      <c r="C17" s="24">
         <f>C15-C16</f>
         <v>82500</v>
       </c>
-      <c r="D17" s="17">
-        <f>D15-D16</f>
+      <c r="D17" s="24">
+        <f t="shared" ref="D17:J17" si="2">D15-D16</f>
         <v>90750</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="E17" s="24">
+        <f t="shared" si="2"/>
+        <v>99825.000000000015</v>
+      </c>
+      <c r="F17" s="24">
+        <f t="shared" si="2"/>
+        <v>109807.50000000003</v>
+      </c>
+      <c r="G17" s="24">
+        <f t="shared" si="2"/>
+        <v>120788.25000000004</v>
+      </c>
+      <c r="H17" s="24">
+        <f t="shared" si="2"/>
+        <v>132867.07500000007</v>
+      </c>
+      <c r="I17" s="24">
+        <f t="shared" si="2"/>
+        <v>146153.78250000009</v>
+      </c>
+      <c r="J17" s="24">
+        <f t="shared" si="2"/>
+        <v>160769.1607500001</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="22">
         <v>16500</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="22">
         <v>18150</v>
+      </c>
+      <c r="E18" s="23">
+        <f>E7</f>
+        <v>19000</v>
+      </c>
+      <c r="F18" s="23">
+        <f t="shared" ref="F18:J18" si="3">F7</f>
+        <v>19500</v>
+      </c>
+      <c r="G18" s="23">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="H18" s="23">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="I18" s="23">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="J18" s="23">
+        <f t="shared" si="3"/>
+        <v>20000</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -879,30 +1095,72 @@
         <v>5</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="12">
+      <c r="C19" s="25">
         <f>C17-C18</f>
         <v>66000</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="25">
         <f>D17-D18</f>
         <v>72600</v>
       </c>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="E19" s="25">
+        <f t="shared" ref="E19:J19" si="4">E17-E18</f>
+        <v>80825.000000000015</v>
+      </c>
+      <c r="F19" s="25">
+        <f t="shared" si="4"/>
+        <v>90307.500000000029</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" si="4"/>
+        <v>100788.25000000004</v>
+      </c>
+      <c r="H19" s="25">
+        <f t="shared" si="4"/>
+        <v>112867.07500000007</v>
+      </c>
+      <c r="I19" s="25">
+        <f t="shared" si="4"/>
+        <v>126153.78250000009</v>
+      </c>
+      <c r="J19" s="25">
+        <f t="shared" si="4"/>
+        <v>140769.1607500001</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="22">
         <v>6600</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="22">
         <v>7260</v>
+      </c>
+      <c r="E20" s="23">
+        <f>E8*E15</f>
+        <v>9075.0000000000018</v>
+      </c>
+      <c r="F20" s="23">
+        <f t="shared" ref="F20:J20" si="5">F8*F15</f>
+        <v>9982.5000000000036</v>
+      </c>
+      <c r="G20" s="23">
+        <f t="shared" si="5"/>
+        <v>10980.750000000005</v>
+      </c>
+      <c r="H20" s="23">
+        <f t="shared" si="5"/>
+        <v>12078.825000000006</v>
+      </c>
+      <c r="I20" s="23">
+        <f t="shared" si="5"/>
+        <v>13286.707500000008</v>
+      </c>
+      <c r="J20" s="23">
+        <f t="shared" si="5"/>
+        <v>14615.378250000009</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -910,76 +1168,148 @@
         <v>7</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="16">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="16">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="C21" s="26">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="26">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="25">
+        <f>E9</f>
+        <v>1000</v>
+      </c>
+      <c r="F21" s="25">
+        <f t="shared" ref="F21:I21" si="6">F9</f>
+        <v>1000</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="H21" s="25">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="I21" s="25">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="J21" s="25">
+        <f>J9</f>
+        <v>1000</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="13"/>
-      <c r="C22" s="13">
+      <c r="C22" s="27">
         <f>C19-SUM(C20,C21)</f>
         <v>58400</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="27">
         <f>D19-SUM(D20,D21)</f>
         <v>64340</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
+      <c r="E22" s="27">
+        <f t="shared" ref="E22:J22" si="7">E19-SUM(E20,E21)</f>
+        <v>70750.000000000015</v>
+      </c>
+      <c r="F22" s="27">
+        <f t="shared" si="7"/>
+        <v>79325.000000000029</v>
+      </c>
+      <c r="G22" s="27">
+        <f t="shared" si="7"/>
+        <v>88807.500000000044</v>
+      </c>
+      <c r="H22" s="27">
+        <f t="shared" si="7"/>
+        <v>99788.250000000058</v>
+      </c>
+      <c r="I22" s="27">
+        <f t="shared" si="7"/>
+        <v>111867.07500000008</v>
+      </c>
+      <c r="J22" s="27">
+        <f t="shared" si="7"/>
+        <v>125153.78250000009</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="16">
+      <c r="C23" s="26">
         <v>17520</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="26">
         <v>19302</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="E23" s="25">
+        <f>E10*E22</f>
+        <v>21225.000000000004</v>
+      </c>
+      <c r="F23" s="25">
+        <f t="shared" ref="F23:J23" si="8">F10*F22</f>
+        <v>23797.500000000007</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="8"/>
+        <v>26642.250000000011</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" si="8"/>
+        <v>29936.475000000017</v>
+      </c>
+      <c r="I23" s="25">
+        <f t="shared" si="8"/>
+        <v>33560.122500000027</v>
+      </c>
+      <c r="J23" s="25">
+        <f t="shared" si="8"/>
+        <v>37546.134750000027</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="14"/>
-      <c r="C24" s="14">
+      <c r="C24" s="28">
         <f>C22-C23</f>
         <v>40880</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="28">
         <f>D22-D23</f>
         <v>45038</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
+      <c r="E24" s="28">
+        <f>E22-E23</f>
+        <v>49525.000000000015</v>
+      </c>
+      <c r="F24" s="28">
+        <f t="shared" ref="E24:J24" si="9">F22-F23</f>
+        <v>55527.500000000022</v>
+      </c>
+      <c r="G24" s="28">
+        <f t="shared" si="9"/>
+        <v>62165.250000000029</v>
+      </c>
+      <c r="H24" s="28">
+        <f>H22-H23</f>
+        <v>69851.775000000038</v>
+      </c>
+      <c r="I24" s="28">
+        <f>I22-I23</f>
+        <v>78306.952500000058</v>
+      </c>
+      <c r="J24" s="28">
+        <f>J22-J23</f>
+        <v>87607.647750000062</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/Practical_19.xlsx
+++ b/Practical_19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>Income Statement</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Cogs % of revenue</t>
+  </si>
+  <si>
+    <t>Sensitive Analysis</t>
   </si>
 </sst>
 </file>
@@ -94,7 +100,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -127,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,25 +148,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,50 +201,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,14 +543,14 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4">
+      <c r="B5" s="24"/>
+      <c r="C5" s="1">
         <v>2016</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>2017</v>
       </c>
     </row>
@@ -566,11 +564,11 @@
       <c r="D6">
         <v>165000</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -582,21 +580,21 @@
       <c r="D7">
         <v>74250</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -670,349 +668,349 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E25" sqref="E25"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="5"/>
+    <col min="3" max="10" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="5" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10">
+      <c r="C2" s="5">
         <v>2016</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="5">
         <v>2017</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="5">
         <v>2018</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="5">
         <v>2019</v>
       </c>
-      <c r="G2" s="11">
+      <c r="G2" s="5">
         <v>2020</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="5">
         <v>2021</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="5">
         <v>2022</v>
       </c>
-      <c r="J2" s="11">
+      <c r="J2" s="5">
         <v>2023</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="7">
         <f>((D15-C15)/C15)</f>
         <v>0.1</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="8">
         <v>0.1</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="8">
         <v>0.1</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="8">
         <v>0.1</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="8">
         <v>0.1</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="8">
         <v>0.1</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="7">
         <f>C16/C15</f>
         <v>0.45</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="7">
         <f>D16/D15</f>
         <v>0.45</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="8">
         <v>0.45</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="8">
         <v>0.45</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="8">
         <v>0.45</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="8">
         <v>0.45</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="8">
         <v>0.45</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="8">
         <v>0.45</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <f>C18</f>
         <v>16500</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <f>D18</f>
         <v>18150</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="9">
         <v>19000</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="9">
         <v>19500</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="9">
         <v>20000</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="9">
         <v>20000</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="9">
         <v>20000</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="9">
         <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="10">
         <f>C20/C15</f>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="10">
         <f>D20/D15</f>
         <v>4.3999999999999997E-2</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="8">
         <v>0.05</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="8">
         <v>0.05</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="8">
         <v>0.05</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="8">
         <v>0.05</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="8">
         <v>0.05</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="8">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <f>C21</f>
         <v>1000</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <f>D21</f>
         <v>1000</v>
       </c>
-      <c r="E9" s="21">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="21">
-        <v>1000</v>
-      </c>
-      <c r="G9" s="21">
-        <v>1000</v>
-      </c>
-      <c r="H9" s="21">
-        <v>1000</v>
-      </c>
-      <c r="I9" s="21">
-        <v>1000</v>
-      </c>
-      <c r="J9" s="21">
+      <c r="E9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1000</v>
+      </c>
+      <c r="J9" s="11">
         <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <f>C23/C22</f>
         <v>0.3</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="12">
         <f>D23/D22</f>
         <v>0.3</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="8">
         <v>0.3</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="8">
         <v>0.3</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="8">
         <v>0.3</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="8">
         <v>0.3</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="8">
         <v>0.3</v>
       </c>
-      <c r="J10" s="19">
+      <c r="J10" s="8">
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="13">
         <v>150000</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="13">
         <v>165000</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="14">
         <f>D15*(E5+1)</f>
         <v>181500.00000000003</v>
       </c>
-      <c r="F15" s="23">
+      <c r="F15" s="14">
         <f t="shared" ref="F15:J15" si="0">E15*(F5+1)</f>
         <v>199650.00000000006</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
         <v>219615.00000000009</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="14">
         <f t="shared" si="0"/>
         <v>241576.50000000012</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="14">
         <f t="shared" si="0"/>
         <v>265734.15000000014</v>
       </c>
-      <c r="J15" s="23">
+      <c r="J15" s="14">
         <f t="shared" si="0"/>
         <v>292307.56500000018</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="13">
         <v>67500</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="13">
         <v>74250</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="14">
         <f>E15*E6</f>
         <v>81675.000000000015</v>
       </c>
-      <c r="F16" s="23">
+      <c r="F16" s="14">
         <f t="shared" ref="F16:I16" si="1">F15*F6</f>
         <v>89842.500000000029</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G16" s="14">
         <f t="shared" si="1"/>
         <v>98826.750000000044</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="14">
         <f t="shared" si="1"/>
         <v>108709.42500000006</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="14">
         <f t="shared" si="1"/>
         <v>119580.36750000007</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="14">
         <f>J15*J6</f>
         <v>131538.40425000008</v>
       </c>
@@ -1022,299 +1020,434 @@
         <v>3</v>
       </c>
       <c r="B17" s="15"/>
-      <c r="C17" s="24">
+      <c r="C17" s="16">
         <f>C15-C16</f>
         <v>82500</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="16">
         <f t="shared" ref="D17:J17" si="2">D15-D16</f>
         <v>90750</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="16">
         <f t="shared" si="2"/>
         <v>99825.000000000015</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="16">
         <f t="shared" si="2"/>
         <v>109807.50000000003</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="16">
         <f t="shared" si="2"/>
         <v>120788.25000000004</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="16">
         <f t="shared" si="2"/>
         <v>132867.07500000007</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="16">
         <f t="shared" si="2"/>
         <v>146153.78250000009</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="16">
         <f t="shared" si="2"/>
         <v>160769.1607500001</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="13">
         <v>16500</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="13">
         <v>18150</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="14">
         <f>E7</f>
         <v>19000</v>
       </c>
-      <c r="F18" s="23">
+      <c r="F18" s="14">
         <f t="shared" ref="F18:J18" si="3">F7</f>
         <v>19500</v>
       </c>
-      <c r="G18" s="23">
+      <c r="G18" s="14">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="14">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="14">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
-      <c r="J18" s="23">
+      <c r="J18" s="14">
         <f t="shared" si="3"/>
         <v>20000</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18">
         <f>C17-C18</f>
         <v>66000</v>
       </c>
-      <c r="D19" s="25">
+      <c r="D19" s="18">
         <f>D17-D18</f>
         <v>72600</v>
       </c>
-      <c r="E19" s="25">
+      <c r="E19" s="18">
         <f t="shared" ref="E19:J19" si="4">E17-E18</f>
         <v>80825.000000000015</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="18">
         <f t="shared" si="4"/>
         <v>90307.500000000029</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="18">
         <f t="shared" si="4"/>
         <v>100788.25000000004</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="18">
         <f t="shared" si="4"/>
         <v>112867.07500000007</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="18">
         <f t="shared" si="4"/>
         <v>126153.78250000009</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="18">
         <f t="shared" si="4"/>
         <v>140769.1607500001</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="13">
         <v>6600</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D20" s="13">
         <v>7260</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="14">
         <f>E8*E15</f>
         <v>9075.0000000000018</v>
       </c>
-      <c r="F20" s="23">
+      <c r="F20" s="14">
         <f t="shared" ref="F20:J20" si="5">F8*F15</f>
         <v>9982.5000000000036</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="14">
         <f t="shared" si="5"/>
         <v>10980.750000000005</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="14">
         <f t="shared" si="5"/>
         <v>12078.825000000006</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="14">
         <f t="shared" si="5"/>
         <v>13286.707500000008</v>
       </c>
-      <c r="J20" s="23">
+      <c r="J20" s="14">
         <f t="shared" si="5"/>
         <v>14615.378250000009</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="26">
-        <v>1000</v>
-      </c>
-      <c r="D21" s="26">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="B21" s="17"/>
+      <c r="C21" s="19">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="19">
+        <v>1000</v>
+      </c>
+      <c r="E21" s="18">
         <f>E9</f>
         <v>1000</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="18">
         <f t="shared" ref="F21:I21" si="6">F9</f>
         <v>1000</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="18">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="18">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="18">
         <f t="shared" si="6"/>
         <v>1000</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="18">
         <f>J9</f>
         <v>1000</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="27">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21">
         <f>C19-SUM(C20,C21)</f>
         <v>58400</v>
       </c>
-      <c r="D22" s="27">
+      <c r="D22" s="21">
         <f>D19-SUM(D20,D21)</f>
         <v>64340</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="21">
         <f t="shared" ref="E22:J22" si="7">E19-SUM(E20,E21)</f>
         <v>70750.000000000015</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="21">
         <f t="shared" si="7"/>
         <v>79325.000000000029</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="21">
         <f t="shared" si="7"/>
         <v>88807.500000000044</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="21">
         <f t="shared" si="7"/>
         <v>99788.250000000058</v>
       </c>
-      <c r="I22" s="27">
+      <c r="I22" s="21">
         <f t="shared" si="7"/>
         <v>111867.07500000008</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="21">
         <f t="shared" si="7"/>
         <v>125153.78250000009</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="26">
+      <c r="B23" s="17"/>
+      <c r="C23" s="19">
         <v>17520</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="19">
         <v>19302</v>
       </c>
-      <c r="E23" s="25">
+      <c r="E23" s="18">
         <f>E10*E22</f>
         <v>21225.000000000004</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="18">
         <f t="shared" ref="F23:J23" si="8">F10*F22</f>
         <v>23797.500000000007</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="18">
         <f t="shared" si="8"/>
         <v>26642.250000000011</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="18">
         <f t="shared" si="8"/>
         <v>29936.475000000017</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="18">
         <f t="shared" si="8"/>
         <v>33560.122500000027</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="18">
         <f t="shared" si="8"/>
         <v>37546.134750000027</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="C24" s="28">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23">
         <f>C22-C23</f>
         <v>40880</v>
       </c>
-      <c r="D24" s="28">
+      <c r="D24" s="23">
         <f>D22-D23</f>
         <v>45038</v>
       </c>
-      <c r="E24" s="28">
+      <c r="E24" s="23">
         <f>E22-E23</f>
         <v>49525.000000000015</v>
       </c>
-      <c r="F24" s="28">
-        <f t="shared" ref="E24:J24" si="9">F22-F23</f>
+      <c r="F24" s="23">
+        <f t="shared" ref="F24:G24" si="9">F22-F23</f>
         <v>55527.500000000022</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="23">
         <f t="shared" si="9"/>
         <v>62165.250000000029</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="23">
         <f>H22-H23</f>
         <v>69851.775000000038</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="23">
         <f>I22-I23</f>
         <v>78306.952500000058</v>
       </c>
-      <c r="J24" s="28">
+      <c r="J24" s="23">
         <f>J22-J23</f>
         <v>87607.647750000062</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C28" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C29" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C30" s="27"/>
+      <c r="D30" s="3">
+        <f>'Financial Model'!E24</f>
+        <v>49525.000000000015</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F30" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C31" s="27"/>
+      <c r="D31" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <f t="dataTable" ref="E31:H35" dt2D="1" dtr="1" r1="E5" r2="E6"/>
+        <v>40573.75</v>
+      </c>
+      <c r="F31">
+        <v>43172.500000000015</v>
+      </c>
+      <c r="G31">
+        <v>45771.249999999985</v>
+      </c>
+      <c r="H31">
+        <v>48370</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C32" s="27"/>
+      <c r="D32" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E32">
+        <v>46637.5</v>
+      </c>
+      <c r="F32">
+        <v>49525.000000000015</v>
+      </c>
+      <c r="G32">
+        <v>52412.499999999985</v>
+      </c>
+      <c r="H32">
+        <v>55300</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="27"/>
+      <c r="D33" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E33">
+        <v>52701.25</v>
+      </c>
+      <c r="F33">
+        <v>55877.500000000015</v>
+      </c>
+      <c r="G33">
+        <v>59053.749999999985</v>
+      </c>
+      <c r="H33">
+        <v>62230</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" s="27"/>
+      <c r="D34" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="E34">
+        <v>58765</v>
+      </c>
+      <c r="F34">
+        <v>62230.000000000022</v>
+      </c>
+      <c r="G34">
+        <v>65694.999999999985</v>
+      </c>
+      <c r="H34">
+        <v>69160</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" s="27"/>
+      <c r="D35" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E35">
+        <v>64828.75</v>
+      </c>
+      <c r="F35">
+        <v>68582.500000000029</v>
+      </c>
+      <c r="G35">
+        <v>72336.249999999985</v>
+      </c>
+      <c r="H35">
+        <v>76090</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A14:J14"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="C28:H28"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:J1"/>
     <mergeCell ref="A4:J4"/>

--- a/Practical_19.xlsx
+++ b/Practical_19.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Income Statement</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Sensitive Analysis</t>
+  </si>
+  <si>
+    <t>Cogs</t>
   </si>
 </sst>
 </file>
@@ -668,20 +671,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomRight" activeCell="E16" sqref="E16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="5"/>
-    <col min="3" max="10" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
@@ -956,11 +961,11 @@
         <v>165000</v>
       </c>
       <c r="E15" s="14">
-        <f>D15*(E5+1)</f>
+        <f>D15*(E5+1+$C$39)</f>
         <v>181500.00000000003</v>
       </c>
       <c r="F15" s="14">
-        <f t="shared" ref="F15:J15" si="0">E15*(F5+1)</f>
+        <f t="shared" ref="F15:J15" si="0">E15*(F5+1+$C$39)</f>
         <v>199650.00000000006</v>
       </c>
       <c r="G15" s="14">
@@ -991,11 +996,11 @@
         <v>74250</v>
       </c>
       <c r="E16" s="14">
-        <f>E15*E6</f>
+        <f>E15*(E6+$F$39)</f>
         <v>81675.000000000015</v>
       </c>
       <c r="F16" s="14">
-        <f t="shared" ref="F16:I16" si="1">F15*F6</f>
+        <f t="shared" ref="F16:J16" si="1">F15*(F6+$F$39)</f>
         <v>89842.500000000029</v>
       </c>
       <c r="G16" s="14">
@@ -1011,7 +1016,7 @@
         <v>119580.36750000007</v>
       </c>
       <c r="J16" s="14">
-        <f>J15*J6</f>
+        <f t="shared" si="1"/>
         <v>131538.40425000008</v>
       </c>
     </row>
@@ -1440,6 +1445,66 @@
       </c>
       <c r="H35">
         <v>76090</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" s="7">
+        <v>0</v>
+      </c>
+      <c r="D39" s="14">
+        <f>E24</f>
+        <v>49525.000000000015</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0</v>
+      </c>
+      <c r="G39" s="14">
+        <f>E24</f>
+        <v>49525.000000000015</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="D40" s="5">
+        <f t="dataTable" ref="D40:D41" dt2D="0" dtr="0" r1="C39" ca="1"/>
+        <v>46637.5</v>
+      </c>
+      <c r="F40" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="dataTable" ref="G40:G41" dt2D="0" dtr="0" r1="F39" ca="1"/>
+        <v>55877.500000000015</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="D41" s="5">
+        <v>52412.500000000015</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="G41" s="5">
+        <v>43172.500000000015</v>
       </c>
     </row>
   </sheetData>

--- a/Practical_19.xlsx
+++ b/Practical_19.xlsx
@@ -4,11 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="Financial Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Historical Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Excercise - Historical Data" sheetId="3" r:id="rId2"/>
+    <sheet name="Excercise - Financial Model" sheetId="4" r:id="rId3"/>
+    <sheet name="Financial Model" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>Income Statement</t>
   </si>
@@ -95,17 +97,53 @@
   </si>
   <si>
     <t>Cogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A XYZ company manufactures Shoes. Consider the following assumptions and build Income Statement including Net Income and Net Income %age of Revenue.  Make a robust model with minumum hardcoding and color-coding. 
+Perform sensitive analysis on Net Income by sensitizing Units and Price. </t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>COGS(Unit)</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>Marketing Cost</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>Historical Data</t>
+  </si>
+  <si>
+    <t>EBIDTA</t>
+  </si>
+  <si>
+    <t>Senstivity Analysis</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +173,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +226,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -199,12 +294,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -231,6 +338,9 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -252,8 +362,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -546,10 +697,10 @@
   </cols>
   <sheetData>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="24"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="1">
         <v>2016</v>
       </c>
@@ -567,11 +718,11 @@
       <c r="D6">
         <v>165000</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -583,21 +734,21 @@
       <c r="D7">
         <v>74250</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -671,13 +822,930 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+    </row>
+    <row r="2" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+    </row>
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+    </row>
+    <row r="4" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>2017</v>
+      </c>
+      <c r="D7">
+        <v>2018</v>
+      </c>
+      <c r="E7">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9">
+        <v>1500</v>
+      </c>
+      <c r="D9">
+        <v>1700</v>
+      </c>
+      <c r="E9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="33">
+        <v>400</v>
+      </c>
+      <c r="D10" s="33">
+        <v>600</v>
+      </c>
+      <c r="E10" s="33">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="33">
+        <v>300</v>
+      </c>
+      <c r="D11" s="33">
+        <v>500</v>
+      </c>
+      <c r="E11" s="33">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="33">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="33">
+        <v>15000</v>
+      </c>
+      <c r="E12" s="33">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="33">
+        <v>5000</v>
+      </c>
+      <c r="D13" s="33">
+        <v>6000</v>
+      </c>
+      <c r="E13" s="33">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:M5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37">
+        <v>2017</v>
+      </c>
+      <c r="D2" s="37">
+        <v>2018</v>
+      </c>
+      <c r="E2" s="37">
+        <v>2019</v>
+      </c>
+      <c r="F2" s="39">
+        <v>2020</v>
+      </c>
+      <c r="G2" s="39">
+        <v>2021</v>
+      </c>
+      <c r="H2" s="39">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="47">
+        <f>(D13-C13)/D13</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2">
+        <f>(C14*C11)/C13</f>
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="2">
+        <f>(D14*D11)/D13</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E6" s="2">
+        <f>(E14*E11)/E13</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F6" s="40">
+        <v>0.85</v>
+      </c>
+      <c r="G6" s="40">
+        <v>0.85</v>
+      </c>
+      <c r="H6" s="40">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="46">
+        <f>C16+C17</f>
+        <v>15000</v>
+      </c>
+      <c r="D7" s="46">
+        <f t="shared" ref="D7:E7" si="0">D16+D17</f>
+        <v>21000</v>
+      </c>
+      <c r="E7" s="46">
+        <f t="shared" si="0"/>
+        <v>21000</v>
+      </c>
+      <c r="F7" s="35">
+        <v>25000</v>
+      </c>
+      <c r="G7" s="35">
+        <v>25000</v>
+      </c>
+      <c r="H7" s="35">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="48">
+        <f>C20</f>
+        <v>0.4</v>
+      </c>
+      <c r="D8" s="48">
+        <f t="shared" ref="D8:E8" si="1">D20</f>
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="48">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="F8" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="G8" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="H8" s="40">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="34">
+        <v>1500</v>
+      </c>
+      <c r="D11" s="34">
+        <v>1700</v>
+      </c>
+      <c r="E11" s="34">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="34">
+        <v>2233</v>
+      </c>
+      <c r="G11" s="34">
+        <v>2483</v>
+      </c>
+      <c r="H11" s="34">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="35">
+        <v>400</v>
+      </c>
+      <c r="D12" s="35">
+        <v>600</v>
+      </c>
+      <c r="E12" s="35">
+        <v>600</v>
+      </c>
+      <c r="F12" s="35">
+        <v>650</v>
+      </c>
+      <c r="G12" s="35">
+        <v>650</v>
+      </c>
+      <c r="H12" s="35">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42">
+        <f>C12*C11</f>
+        <v>600000</v>
+      </c>
+      <c r="D13" s="42">
+        <f t="shared" ref="D13:E13" si="2">D12*D11</f>
+        <v>1020000</v>
+      </c>
+      <c r="E13" s="42">
+        <f t="shared" si="2"/>
+        <v>1200000</v>
+      </c>
+      <c r="F13" s="42">
+        <f>F12*F11</f>
+        <v>1451450</v>
+      </c>
+      <c r="G13" s="42">
+        <f t="shared" ref="G13" si="3">G12*G11</f>
+        <v>1613950</v>
+      </c>
+      <c r="H13" s="42">
+        <f t="shared" ref="H13" si="4">H12*H11</f>
+        <v>1913100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="35">
+        <v>300</v>
+      </c>
+      <c r="D14" s="35">
+        <v>500</v>
+      </c>
+      <c r="E14" s="35">
+        <v>500</v>
+      </c>
+      <c r="F14" s="35">
+        <v>400</v>
+      </c>
+      <c r="G14" s="35">
+        <v>400</v>
+      </c>
+      <c r="H14" s="35">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="41"/>
+      <c r="C15" s="42">
+        <f>C13-(C14*C11)</f>
+        <v>150000</v>
+      </c>
+      <c r="D15" s="42">
+        <f t="shared" ref="D15:E15" si="5">D13-(D14*D11)</f>
+        <v>170000</v>
+      </c>
+      <c r="E15" s="42">
+        <f t="shared" si="5"/>
+        <v>200000</v>
+      </c>
+      <c r="F15" s="42">
+        <f t="shared" ref="F15" si="6">F13-(F14*F11)</f>
+        <v>558250</v>
+      </c>
+      <c r="G15" s="42">
+        <f t="shared" ref="G15" si="7">G13-(G14*G11)</f>
+        <v>620750</v>
+      </c>
+      <c r="H15" s="42">
+        <f>H13-(H14*H11)</f>
+        <v>819900</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="35">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="35">
+        <v>15000</v>
+      </c>
+      <c r="E16" s="35">
+        <v>15000</v>
+      </c>
+      <c r="F16" s="35">
+        <v>20000</v>
+      </c>
+      <c r="G16" s="35">
+        <v>20000</v>
+      </c>
+      <c r="H16" s="35">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="35">
+        <v>5000</v>
+      </c>
+      <c r="D17" s="35">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="35">
+        <v>6000</v>
+      </c>
+      <c r="F17" s="49">
+        <v>7000</v>
+      </c>
+      <c r="G17" s="35">
+        <v>8000</v>
+      </c>
+      <c r="H17" s="49">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="41"/>
+      <c r="C18" s="42">
+        <f>C15-(C16+C17)</f>
+        <v>135000</v>
+      </c>
+      <c r="D18" s="42">
+        <f t="shared" ref="D18:E18" si="8">D15-(D16+D17)</f>
+        <v>149000</v>
+      </c>
+      <c r="E18" s="42">
+        <f t="shared" si="8"/>
+        <v>179000</v>
+      </c>
+      <c r="F18" s="42">
+        <f t="shared" ref="F18" si="9">F15-(F16+F17)</f>
+        <v>531250</v>
+      </c>
+      <c r="G18" s="42">
+        <f t="shared" ref="G18" si="10">G15-(G16+G17)</f>
+        <v>592750</v>
+      </c>
+      <c r="H18" s="42">
+        <f t="shared" ref="H18" si="11">H15-(H16+H17)</f>
+        <v>790900</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="45">
+        <f>C18</f>
+        <v>135000</v>
+      </c>
+      <c r="D19" s="45">
+        <f t="shared" ref="D19:E19" si="12">D18</f>
+        <v>149000</v>
+      </c>
+      <c r="E19" s="45">
+        <f t="shared" si="12"/>
+        <v>179000</v>
+      </c>
+      <c r="F19" s="45">
+        <f t="shared" ref="F19" si="13">F18</f>
+        <v>531250</v>
+      </c>
+      <c r="G19" s="45">
+        <f t="shared" ref="G19" si="14">G18</f>
+        <v>592750</v>
+      </c>
+      <c r="H19" s="45">
+        <f t="shared" ref="H19" si="15">H18</f>
+        <v>790900</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="D20" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="F20" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="40">
+        <v>0.4</v>
+      </c>
+      <c r="H20" s="40">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="46">
+        <f>C19-C20*C19</f>
+        <v>81000</v>
+      </c>
+      <c r="D21" s="46">
+        <f t="shared" ref="D21:E21" si="16">D19-D20*D19</f>
+        <v>89400</v>
+      </c>
+      <c r="E21" s="46">
+        <f t="shared" si="16"/>
+        <v>107400</v>
+      </c>
+      <c r="F21" s="46">
+        <f t="shared" ref="F21" si="17">F19-F20*F19</f>
+        <v>318750</v>
+      </c>
+      <c r="G21" s="46">
+        <f t="shared" ref="G21:H21" si="18">G19-G20*G19</f>
+        <v>355650</v>
+      </c>
+      <c r="H21" s="46">
+        <f t="shared" si="18"/>
+        <v>474540</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="54"/>
+      <c r="D26" s="46">
+        <f>C21</f>
+        <v>81000</v>
+      </c>
+      <c r="E26" s="33">
+        <v>400</v>
+      </c>
+      <c r="F26" s="33">
+        <v>425</v>
+      </c>
+      <c r="G26" s="33">
+        <v>450</v>
+      </c>
+      <c r="H26" s="33">
+        <v>475</v>
+      </c>
+      <c r="I26" s="33">
+        <v>500</v>
+      </c>
+      <c r="J26" s="33">
+        <v>525</v>
+      </c>
+      <c r="K26" s="33">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <v>1500</v>
+      </c>
+      <c r="E27" s="57">
+        <f t="dataTable" ref="E27:K33" dt2D="1" dtr="1" r1="C12" r2="C11"/>
+        <v>81000</v>
+      </c>
+      <c r="F27" s="57">
+        <v>103500</v>
+      </c>
+      <c r="G27" s="57">
+        <v>126000</v>
+      </c>
+      <c r="H27" s="57">
+        <v>148500</v>
+      </c>
+      <c r="I27" s="57">
+        <v>171000</v>
+      </c>
+      <c r="J27" s="57">
+        <v>193500</v>
+      </c>
+      <c r="K27" s="57">
+        <v>216000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="53"/>
+      <c r="D28">
+        <v>1750</v>
+      </c>
+      <c r="E28" s="57">
+        <v>96000</v>
+      </c>
+      <c r="F28" s="57">
+        <v>122250</v>
+      </c>
+      <c r="G28" s="57">
+        <v>148500</v>
+      </c>
+      <c r="H28" s="57">
+        <v>174750</v>
+      </c>
+      <c r="I28" s="57">
+        <v>201000</v>
+      </c>
+      <c r="J28" s="57">
+        <v>227250</v>
+      </c>
+      <c r="K28" s="57">
+        <v>253500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="53"/>
+      <c r="D29">
+        <v>2000</v>
+      </c>
+      <c r="E29" s="57">
+        <v>111000</v>
+      </c>
+      <c r="F29" s="57">
+        <v>141000</v>
+      </c>
+      <c r="G29" s="57">
+        <v>171000</v>
+      </c>
+      <c r="H29" s="57">
+        <v>201000</v>
+      </c>
+      <c r="I29" s="57">
+        <v>231000</v>
+      </c>
+      <c r="J29" s="57">
+        <v>261000</v>
+      </c>
+      <c r="K29" s="57">
+        <v>291000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C30" s="53"/>
+      <c r="D30">
+        <v>2250</v>
+      </c>
+      <c r="E30" s="57">
+        <v>126000</v>
+      </c>
+      <c r="F30" s="57">
+        <v>159750</v>
+      </c>
+      <c r="G30" s="57">
+        <v>193500</v>
+      </c>
+      <c r="H30" s="57">
+        <v>227250</v>
+      </c>
+      <c r="I30" s="57">
+        <v>261000</v>
+      </c>
+      <c r="J30" s="57">
+        <v>294750</v>
+      </c>
+      <c r="K30" s="57">
+        <v>328500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="53"/>
+      <c r="D31">
+        <v>2500</v>
+      </c>
+      <c r="E31" s="57">
+        <v>141000</v>
+      </c>
+      <c r="F31" s="57">
+        <v>178500</v>
+      </c>
+      <c r="G31" s="57">
+        <v>216000</v>
+      </c>
+      <c r="H31" s="57">
+        <v>253500</v>
+      </c>
+      <c r="I31" s="57">
+        <v>291000</v>
+      </c>
+      <c r="J31" s="57">
+        <v>328500</v>
+      </c>
+      <c r="K31" s="57">
+        <v>366000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="53"/>
+      <c r="D32">
+        <v>2750</v>
+      </c>
+      <c r="E32" s="57">
+        <v>156000</v>
+      </c>
+      <c r="F32" s="57">
+        <v>197250</v>
+      </c>
+      <c r="G32" s="57">
+        <v>238500</v>
+      </c>
+      <c r="H32" s="57">
+        <v>279750</v>
+      </c>
+      <c r="I32" s="57">
+        <v>321000</v>
+      </c>
+      <c r="J32" s="57">
+        <v>362250</v>
+      </c>
+      <c r="K32" s="57">
+        <v>403500</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" s="53"/>
+      <c r="D33">
+        <v>3000</v>
+      </c>
+      <c r="E33" s="57">
+        <v>171000</v>
+      </c>
+      <c r="F33" s="57">
+        <v>216000</v>
+      </c>
+      <c r="G33" s="57">
+        <v>261000</v>
+      </c>
+      <c r="H33" s="57">
+        <v>306000</v>
+      </c>
+      <c r="I33" s="57">
+        <v>351000</v>
+      </c>
+      <c r="J33" s="57">
+        <v>396000</v>
+      </c>
+      <c r="K33" s="57">
+        <v>441000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="C27:C33"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A10:H10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E16" sqref="E16:J16"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,20 +1759,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -738,18 +1806,18 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -937,18 +2005,18 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -1316,29 +2384,29 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="27"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="3">
         <f>'Financial Model'!E24</f>
         <v>49525.000000000015</v>
@@ -1357,12 +2425,12 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C31" s="27"/>
+      <c r="C31" s="28"/>
       <c r="D31" s="2">
         <v>0.5</v>
       </c>
       <c r="E31">
-        <f t="dataTable" ref="E31:H35" dt2D="1" dtr="1" r1="E5" r2="E6"/>
+        <f t="dataTable" ref="E31:H35" dt2D="1" dtr="1" r1="E5" r2="E6" ca="1"/>
         <v>40573.75</v>
       </c>
       <c r="F31">
@@ -1376,7 +2444,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C32" s="27"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="2">
         <v>0.45</v>
       </c>
@@ -1394,7 +2462,7 @@
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="27"/>
+      <c r="C33" s="28"/>
       <c r="D33" s="2">
         <v>0.4</v>
       </c>
@@ -1412,7 +2480,7 @@
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C34" s="27"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="2">
         <v>0.35</v>
       </c>
@@ -1430,7 +2498,7 @@
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C35" s="27"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="2">
         <v>0.3</v>
       </c>
@@ -1482,7 +2550,7 @@
         <v>-0.05</v>
       </c>
       <c r="D40" s="5">
-        <f t="dataTable" ref="D40:D41" dt2D="0" dtr="0" r1="C39" ca="1"/>
+        <f t="dataTable" ref="D40:D41" dt2D="0" dtr="0" r1="C39"/>
         <v>46637.5</v>
       </c>
       <c r="F40" s="7">
